--- a/tu-da-hoc.xlsx
+++ b/tu-da-hoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\日本語\jp_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japanese\kanji-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC2EFE-4D9E-4DA7-8CF5-5CBC20EFCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D2E0CF-98BA-41BD-AEB7-A0AB22B43FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
   <si>
     <t>おくれます</t>
   </si>
@@ -599,6 +599,126 @@
   </si>
   <si>
     <t>GIÁC</t>
+  </si>
+  <si>
+    <t>さがします</t>
+  </si>
+  <si>
+    <t>探します</t>
+  </si>
+  <si>
+    <t>tìm, tìm kiếm</t>
+  </si>
+  <si>
+    <t>THAM, THÁM</t>
+  </si>
+  <si>
+    <t>さんかします</t>
+  </si>
+  <si>
+    <t>参加します</t>
+  </si>
+  <si>
+    <t>tham gia, dự [buổi tiệc]</t>
+  </si>
+  <si>
+    <t>パーティーに～</t>
+  </si>
+  <si>
+    <t>参加：Tham gia</t>
+  </si>
+  <si>
+    <t>きぶんがいい</t>
+  </si>
+  <si>
+    <t>きぶんがわるい</t>
+  </si>
+  <si>
+    <t>気分がいい</t>
+  </si>
+  <si>
+    <t>気分が悪い</t>
+  </si>
+  <si>
+    <t>cảm thấy tốt, cảm thấy khỏe</t>
+  </si>
+  <si>
+    <t>cảm thấy không tốt, cảm thấy không khỏe</t>
+  </si>
+  <si>
+    <t>うんどうかい</t>
+  </si>
+  <si>
+    <t>運動会</t>
+  </si>
+  <si>
+    <t>hội thi thể thao</t>
+  </si>
+  <si>
+    <t>運: vận</t>
+  </si>
+  <si>
+    <t>ボランティア</t>
+  </si>
+  <si>
+    <t>tình nguyện viên</t>
+  </si>
+  <si>
+    <t>～べん</t>
+  </si>
+  <si>
+    <t>～弁</t>
+  </si>
+  <si>
+    <t>giọng</t>
+  </si>
+  <si>
+    <t>弁: BIỆN</t>
+  </si>
+  <si>
+    <t>ばしょ</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>địa điểm</t>
+  </si>
+  <si>
+    <t>場所: TRÀNG SỞ</t>
+  </si>
+  <si>
+    <t>こんど</t>
+  </si>
+  <si>
+    <t>今度</t>
+  </si>
+  <si>
+    <t>ずいぶん</t>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+  </si>
+  <si>
+    <t>直接</t>
+  </si>
+  <si>
+    <t>lần tới</t>
+  </si>
+  <si>
+    <t>khá, tương đối</t>
+  </si>
+  <si>
+    <t>trực tiếp</t>
+  </si>
+  <si>
+    <t>今度: KIM ĐỘ</t>
+  </si>
+  <si>
+    <t>直接: TRỰC TIẾP</t>
+  </si>
+  <si>
+    <t>つけます</t>
   </si>
 </sst>
 </file>
@@ -994,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9766C5-377E-4030-93B0-E189C4D323FF}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1015,25 +1135,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H1" s="5">
         <v>26</v>
@@ -1041,25 +1156,25 @@
     </row>
     <row r="2" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5">
         <v>26</v>
@@ -1067,10 +1182,22 @@
     </row>
     <row r="3" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -1081,13 +1208,13 @@
     </row>
     <row r="4" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4" s="5">
         <v>26</v>
@@ -1095,19 +1222,25 @@
     </row>
     <row r="5" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>191</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5">
         <v>26</v>
@@ -1115,22 +1248,10 @@
     </row>
     <row r="6" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>4</v>
@@ -1141,22 +1262,16 @@
     </row>
     <row r="7" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -1167,25 +1282,25 @@
     </row>
     <row r="8" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5">
         <v>26</v>
@@ -1193,25 +1308,25 @@
     </row>
     <row r="9" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H9" s="5">
         <v>26</v>
@@ -1219,16 +1334,25 @@
     </row>
     <row r="10" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="5">
         <v>26</v>
@@ -1236,16 +1360,25 @@
     </row>
     <row r="11" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="5">
         <v>26</v>
@@ -1253,10 +1386,16 @@
     </row>
     <row r="12" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="5">
         <v>26</v>
@@ -1264,10 +1403,16 @@
     </row>
     <row r="13" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H13" s="5">
         <v>26</v>
@@ -1275,177 +1420,139 @@
     </row>
     <row r="14" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="H14" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="H15" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="5">
-        <v>26</v>
+        <v>201</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="5">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="5">
-        <v>26</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>206</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="5">
-        <v>26</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="5">
-        <v>26</v>
+        <v>218</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="5">
-        <v>26</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="5">
-        <v>26</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="H23" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5">
         <v>26</v>
@@ -1453,13 +1560,16 @@
     </row>
     <row r="25" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H25" s="5">
         <v>26</v>
@@ -1467,16 +1577,16 @@
     </row>
     <row r="26" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H26" s="5">
         <v>26</v>
@@ -1484,10 +1594,16 @@
     </row>
     <row r="27" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H27" s="5">
         <v>26</v>
@@ -1495,206 +1611,185 @@
     </row>
     <row r="28" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H28" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H29" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H30" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H31" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H32" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H33" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="H34" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H35" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H36" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H37" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="H38" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H39" s="5">
         <v>27</v>
@@ -1702,10 +1797,22 @@
     </row>
     <row r="40" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="H40" s="5">
         <v>27</v>
@@ -1713,10 +1820,22 @@
     </row>
     <row r="41" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="5">
         <v>27</v>
@@ -1724,10 +1843,19 @@
     </row>
     <row r="42" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="5">
         <v>27</v>
@@ -1735,19 +1863,19 @@
     </row>
     <row r="43" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="H43" s="5">
         <v>27</v>
@@ -1755,10 +1883,16 @@
     </row>
     <row r="44" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H44" s="5">
         <v>27</v>
@@ -1766,10 +1900,16 @@
     </row>
     <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>131</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H45" s="5">
         <v>27</v>
@@ -1777,16 +1917,13 @@
     </row>
     <row r="46" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="H46" s="5">
         <v>27</v>
@@ -1794,16 +1931,13 @@
     </row>
     <row r="47" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H47" s="5">
         <v>27</v>
@@ -1811,13 +1945,13 @@
     </row>
     <row r="48" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H48" s="5">
         <v>27</v>
@@ -1825,10 +1959,13 @@
     </row>
     <row r="49" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>172</v>
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="H49" s="5">
         <v>27</v>
@@ -1836,10 +1973,13 @@
     </row>
     <row r="50" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="H50" s="5">
         <v>27</v>
@@ -1847,10 +1987,10 @@
     </row>
     <row r="51" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H51" s="5">
         <v>27</v>
@@ -1858,18 +1998,163 @@
     </row>
     <row r="52" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H58" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H60" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H63" s="5">
         <v>27</v>
       </c>
     </row>

--- a/tu-da-hoc.xlsx
+++ b/tu-da-hoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japanese\kanji-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D2E0CF-98BA-41BD-AEB7-A0AB22B43FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC132F-7528-41BD-931C-B7112BE91CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="292">
   <si>
     <t>おくれます</t>
   </si>
@@ -719,6 +719,211 @@
   </si>
   <si>
     <t>つけます</t>
+  </si>
+  <si>
+    <t>もうしこみます</t>
+  </si>
+  <si>
+    <t>申し込みます</t>
+  </si>
+  <si>
+    <t>đăng ký</t>
+  </si>
+  <si>
+    <t>申: Thân
+込:Vu</t>
+  </si>
+  <si>
+    <t>かいます</t>
+  </si>
+  <si>
+    <t>たてます</t>
+  </si>
+  <si>
+    <t>はしります</t>
+  </si>
+  <si>
+    <t>飼います</t>
+  </si>
+  <si>
+    <t>建てます</t>
+  </si>
+  <si>
+    <t>走ります</t>
+  </si>
+  <si>
+    <t>とります</t>
+  </si>
+  <si>
+    <t>取ります</t>
+  </si>
+  <si>
+    <t>ひらきます</t>
+  </si>
+  <si>
+    <t>ペット</t>
+  </si>
+  <si>
+    <t>とり</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>なみ</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>はなび</t>
+  </si>
+  <si>
+    <t>花火</t>
+  </si>
+  <si>
+    <t>けしき</t>
+  </si>
+  <si>
+    <t>景色</t>
+  </si>
+  <si>
+    <t>ひるま</t>
+  </si>
+  <si>
+    <t>昼間</t>
+  </si>
+  <si>
+    <t>むかし</t>
+  </si>
+  <si>
+    <t>昔</t>
+  </si>
+  <si>
+    <t>どうぐ</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>じどうはんばいき</t>
+  </si>
+  <si>
+    <t>自動販売機</t>
+  </si>
+  <si>
+    <t>つうしんはんばい</t>
+  </si>
+  <si>
+    <t>通信販売</t>
+  </si>
+  <si>
+    <t>マンション</t>
+  </si>
+  <si>
+    <t>だいどころ</t>
+  </si>
+  <si>
+    <t>台所</t>
+  </si>
+  <si>
+    <t>きょうしつ</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>ほかの</t>
+  </si>
+  <si>
+    <t>ほとんど</t>
+  </si>
+  <si>
+    <t>nuôi (động vật)</t>
+  </si>
+  <si>
+    <t>xây, xây dựng</t>
+  </si>
+  <si>
+    <t>chạy (trên đường)</t>
+  </si>
+  <si>
+    <t>xin [nghỉ]</t>
+  </si>
+  <si>
+    <t>nhìn thấy, có thể nhìn thấy</t>
+  </si>
+  <si>
+    <t>nghe thấy, có thể nghe thấy</t>
+  </si>
+  <si>
+    <t>được xây dựng nên</t>
+  </si>
+  <si>
+    <t>mở (lớp học)</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>chim</t>
+  </si>
+  <si>
+    <t>sóng</t>
+  </si>
+  <si>
+    <t>pháo hoa</t>
+  </si>
+  <si>
+    <t>phong cảnh</t>
+  </si>
+  <si>
+    <t>ngày xưa, trước đây</t>
+  </si>
+  <si>
+    <t>thời gian ban ngày</t>
+  </si>
+  <si>
+    <t>dụng cụ, công cụ</t>
+  </si>
+  <si>
+    <t>máy bán tự động</t>
+  </si>
+  <si>
+    <t>bán hàn online</t>
+  </si>
+  <si>
+    <t>nhà chung cư</t>
+  </si>
+  <si>
+    <t>bếp</t>
+  </si>
+  <si>
+    <t>lớp học</t>
+  </si>
+  <si>
+    <t>khác</t>
+  </si>
+  <si>
+    <t>rõ ràng</t>
+  </si>
+  <si>
+    <t>hầu hết, hầu như</t>
+  </si>
+  <si>
+    <t>脱ぎます</t>
+  </si>
+  <si>
+    <t>ぬぎます</t>
+  </si>
+  <si>
+    <t>"cởi" hoặc "tháo" (quần áo, giày dép, v.v.)</t>
+  </si>
+  <si>
+    <t>撮ります</t>
+  </si>
+  <si>
+    <t>chụp ảnh</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9766C5-377E-4030-93B0-E189C4D323FF}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1248,33 +1453,28 @@
     </row>
     <row r="6" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>26</v>
+        <v>226</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
         <v>26</v>
@@ -1282,25 +1482,19 @@
     </row>
     <row r="8" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" s="5">
         <v>26</v>
@@ -1308,25 +1502,25 @@
     </row>
     <row r="9" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5">
         <v>26</v>
@@ -1334,22 +1528,22 @@
     </row>
     <row r="10" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>9</v>
@@ -1360,25 +1554,25 @@
     </row>
     <row r="11" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H11" s="5">
         <v>26</v>
@@ -1386,16 +1580,25 @@
     </row>
     <row r="12" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="5">
         <v>26</v>
@@ -1403,13 +1606,13 @@
     </row>
     <row r="13" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>77</v>
@@ -1420,28 +1623,30 @@
     </row>
     <row r="14" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H14" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="5">
@@ -1450,109 +1655,113 @@
     </row>
     <row r="16" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>216</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="5">
-        <v>26</v>
+        <v>220</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="5">
         <v>26</v>
@@ -1560,16 +1769,10 @@
     </row>
     <row r="25" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5">
         <v>26</v>
@@ -1577,16 +1780,16 @@
     </row>
     <row r="26" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H26" s="5">
         <v>26</v>
@@ -1594,16 +1797,16 @@
     </row>
     <row r="27" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H27" s="5">
         <v>26</v>
@@ -1611,16 +1814,16 @@
     </row>
     <row r="28" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>81</v>
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H28" s="5">
         <v>26</v>
@@ -1628,13 +1831,16 @@
     </row>
     <row r="29" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H29" s="5">
         <v>26</v>
@@ -1642,16 +1848,13 @@
     </row>
     <row r="30" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H30" s="5">
         <v>26</v>
@@ -1659,16 +1862,16 @@
     </row>
     <row r="31" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H31" s="5">
         <v>26</v>
@@ -1676,10 +1879,16 @@
     </row>
     <row r="32" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H32" s="5">
         <v>26</v>
@@ -1687,16 +1896,10 @@
     </row>
     <row r="33" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H33" s="5">
         <v>26</v>
@@ -1704,47 +1907,50 @@
     </row>
     <row r="34" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="H35" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H35" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H36" s="5">
         <v>26</v>
@@ -1752,16 +1958,13 @@
     </row>
     <row r="37" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H37" s="5">
         <v>26</v>
@@ -1769,10 +1972,16 @@
     </row>
     <row r="38" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H38" s="5">
         <v>26</v>
@@ -1780,39 +1989,27 @@
     </row>
     <row r="39" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>9</v>
+        <v>99</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="H39" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H40" s="5">
         <v>27</v>
@@ -1820,19 +2017,19 @@
     </row>
     <row r="41" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>4</v>
@@ -1843,16 +2040,19 @@
     </row>
     <row r="42" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>4</v>
@@ -1863,19 +2063,19 @@
     </row>
     <row r="43" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="5">
         <v>27</v>
@@ -1883,16 +2083,19 @@
     </row>
     <row r="44" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="H44" s="5">
         <v>27</v>
@@ -1900,16 +2103,16 @@
     </row>
     <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>181</v>
+        <v>128</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H45" s="5">
         <v>27</v>
@@ -1917,13 +2120,16 @@
     </row>
     <row r="46" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H46" s="5">
         <v>27</v>
@@ -1931,13 +2137,13 @@
     </row>
     <row r="47" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H47" s="5">
         <v>27</v>
@@ -1945,13 +2151,13 @@
     </row>
     <row r="48" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H48" s="5">
         <v>27</v>
@@ -1959,13 +2165,13 @@
     </row>
     <row r="49" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H49" s="5">
         <v>27</v>
@@ -1973,13 +2179,13 @@
     </row>
     <row r="50" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H50" s="5">
         <v>27</v>
@@ -1987,10 +2193,13 @@
     </row>
     <row r="51" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H51" s="5">
         <v>27</v>
@@ -1998,10 +2207,10 @@
     </row>
     <row r="52" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H52" s="5">
         <v>27</v>
@@ -2009,10 +2218,10 @@
     </row>
     <row r="53" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H53" s="5">
         <v>27</v>
@@ -2020,19 +2229,10 @@
     </row>
     <row r="54" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H54" s="5">
         <v>27</v>
@@ -2040,10 +2240,19 @@
     </row>
     <row r="55" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H55" s="5">
         <v>27</v>
@@ -2051,10 +2260,10 @@
     </row>
     <row r="56" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H56" s="5">
         <v>27</v>
@@ -2062,16 +2271,10 @@
     </row>
     <row r="57" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H57" s="5">
         <v>27</v>
@@ -2079,16 +2282,16 @@
     </row>
     <row r="58" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H58" s="5">
         <v>27</v>
@@ -2096,13 +2299,16 @@
     </row>
     <row r="59" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="H59" s="5">
         <v>27</v>
@@ -2110,10 +2316,13 @@
     </row>
     <row r="60" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="H60" s="5">
         <v>27</v>
@@ -2121,10 +2330,10 @@
     </row>
     <row r="61" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="H61" s="5">
         <v>27</v>
@@ -2132,10 +2341,10 @@
     </row>
     <row r="62" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H62" s="5">
         <v>27</v>
@@ -2143,19 +2352,376 @@
     </row>
     <row r="63" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H63" s="5">
         <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H65" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H70" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H74" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H75" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H77" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H78" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H79" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H80" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H81" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H82" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H83" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H84" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H85" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H86" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H87" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="5">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tu-da-hoc.xlsx
+++ b/tu-da-hoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japanese\kanji-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC132F-7528-41BD-931C-B7112BE91CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E1F98-E119-4DA3-8BE5-F0A090EBAA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
+    <workbookView xWindow="7788" yWindow="0" windowWidth="15348" windowHeight="12336" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="364">
   <si>
     <t>おくれます</t>
   </si>
@@ -924,6 +924,222 @@
   </si>
   <si>
     <t>chụp ảnh</t>
+  </si>
+  <si>
+    <t>こみます</t>
+  </si>
+  <si>
+    <t>すきます</t>
+  </si>
+  <si>
+    <t>こわれます</t>
+  </si>
+  <si>
+    <t>われます</t>
+  </si>
+  <si>
+    <t>おれます</t>
+  </si>
+  <si>
+    <t>やぶれます</t>
+  </si>
+  <si>
+    <t>よごれます</t>
+  </si>
+  <si>
+    <t>はずれます</t>
+  </si>
+  <si>
+    <t>とまります</t>
+  </si>
+  <si>
+    <t>まちがえます</t>
+  </si>
+  <si>
+    <t>かかります</t>
+  </si>
+  <si>
+    <t>おとします</t>
+  </si>
+  <si>
+    <t>さら</t>
+  </si>
+  <si>
+    <t>ちゃわん</t>
+  </si>
+  <si>
+    <t>コップ</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>ふくろ</t>
+  </si>
+  <si>
+    <t>さいふ</t>
+  </si>
+  <si>
+    <t>えだ</t>
+  </si>
+  <si>
+    <t>えきいん</t>
+  </si>
+  <si>
+    <t>このへん</t>
+  </si>
+  <si>
+    <t>へん</t>
+  </si>
+  <si>
+    <t>このぐらい</t>
+  </si>
+  <si>
+    <t>おさきにどうぞ</t>
+  </si>
+  <si>
+    <t>込みます</t>
+  </si>
+  <si>
+    <t>壊れます</t>
+  </si>
+  <si>
+    <t>割れます</t>
+  </si>
+  <si>
+    <t>折れます</t>
+  </si>
+  <si>
+    <t>破れます</t>
+  </si>
+  <si>
+    <t>汚れます</t>
+  </si>
+  <si>
+    <t>付きます</t>
+  </si>
+  <si>
+    <t>外れます</t>
+  </si>
+  <si>
+    <t>止まります</t>
+  </si>
+  <si>
+    <t>落とします</t>
+  </si>
+  <si>
+    <t>掛かります</t>
+  </si>
+  <si>
+    <t>「お」皿</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>枝</t>
+  </si>
+  <si>
+    <t>駅員</t>
+  </si>
+  <si>
+    <t>この辺</t>
+  </si>
+  <si>
+    <t>辺</t>
+  </si>
+  <si>
+    <t>お先にどうぞ</t>
+  </si>
+  <si>
+    <t>mở (cửa)</t>
+  </si>
+  <si>
+    <t>đóng (cửa)</t>
+  </si>
+  <si>
+    <t>sáng (điện)</t>
+  </si>
+  <si>
+    <t>tắt (điện)</t>
+  </si>
+  <si>
+    <t>đông, tắc (đường)</t>
+  </si>
+  <si>
+    <t>vắng, thoáng (đường)</t>
+  </si>
+  <si>
+    <t>hỏng (cái ghế bị)</t>
+  </si>
+  <si>
+    <t>vỡ (cái cốc bị)</t>
+  </si>
+  <si>
+    <t>gãy (cái cây bị)</t>
+  </si>
+  <si>
+    <t>rách (tờ giấy bị)</t>
+  </si>
+  <si>
+    <t>bắn (quần áo bị)</t>
+  </si>
+  <si>
+    <t>có, có gắn, có kèm theo (túi)</t>
+  </si>
+  <si>
+    <t>tuột, bung (cái cúc bị)</t>
+  </si>
+  <si>
+    <t>dừng (thang máy)</t>
+  </si>
+  <si>
+    <t>nhầm, sai</t>
+  </si>
+  <si>
+    <t>đánh rơi</t>
+  </si>
+  <si>
+    <t>khóa (chìa khóa)</t>
+  </si>
+  <si>
+    <t>cái đĩa</t>
+  </si>
+  <si>
+    <t>cái bát</t>
+  </si>
+  <si>
+    <t>cái cốc</t>
+  </si>
+  <si>
+    <t>thủy tinh</t>
+  </si>
+  <si>
+    <t>cái túi</t>
+  </si>
+  <si>
+    <t>cái ví</t>
+  </si>
+  <si>
+    <t>cành cây</t>
+  </si>
+  <si>
+    <t>nhân viên nhà ga</t>
+  </si>
+  <si>
+    <t>xung quanh đây, gần đây</t>
+  </si>
+  <si>
+    <t>xung quanh, chỗ</t>
+  </si>
+  <si>
+    <t>khoảng gần này</t>
+  </si>
+  <si>
+    <t>Xin mời đi trước</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9766C5-377E-4030-93B0-E189C4D323FF}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2724,7 +2940,393 @@
         <v>28</v>
       </c>
     </row>
+    <row r="91" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H92" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H93" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H94" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H95" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H96" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H97" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H98" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H99" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H100" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H102" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H103" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H104" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H105" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H106" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H107" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H108" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H109" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H110" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H111" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H112" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H113" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H114" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H115" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H116" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H117" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H118" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H119" s="5">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tu-da-hoc.xlsx
+++ b/tu-da-hoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japanese\kanji-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\日本語\jp_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E1F98-E119-4DA3-8BE5-F0A090EBAA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C7722-7AA9-4724-BD1D-49A046E97316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="0" windowWidth="15348" windowHeight="12336" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>rách (tờ giấy bị)</t>
   </si>
   <si>
-    <t>bắn (quần áo bị)</t>
-  </si>
-  <si>
     <t>có, có gắn, có kèm theo (túi)</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>Xin mời đi trước</t>
+  </si>
+  <si>
+    <t>bẩn (quần áo bị)</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9766C5-377E-4030-93B0-E189C4D323FF}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:C119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3082,7 +3082,7 @@
         <v>321</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="H101" s="5">
         <v>29</v>
@@ -3096,7 +3096,7 @@
         <v>322</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H102" s="5">
         <v>29</v>
@@ -3110,7 +3110,7 @@
         <v>323</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H103" s="5">
         <v>29</v>
@@ -3124,7 +3124,7 @@
         <v>324</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H104" s="5">
         <v>29</v>
@@ -3135,7 +3135,7 @@
         <v>301</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H105" s="5">
         <v>29</v>
@@ -3149,7 +3149,7 @@
         <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H106" s="5">
         <v>29</v>
@@ -3163,7 +3163,7 @@
         <v>326</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H107" s="5">
         <v>29</v>
@@ -3177,7 +3177,7 @@
         <v>327</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H108" s="5">
         <v>29</v>
@@ -3188,7 +3188,7 @@
         <v>305</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H109" s="5">
         <v>29</v>
@@ -3199,7 +3199,7 @@
         <v>306</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H110" s="5">
         <v>29</v>
@@ -3210,7 +3210,7 @@
         <v>307</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H111" s="5">
         <v>29</v>
@@ -3224,7 +3224,7 @@
         <v>328</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H112" s="5">
         <v>29</v>
@@ -3238,7 +3238,7 @@
         <v>329</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H113" s="5">
         <v>29</v>
@@ -3252,7 +3252,7 @@
         <v>330</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H114" s="5">
         <v>29</v>
@@ -3266,7 +3266,7 @@
         <v>331</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H115" s="5">
         <v>29</v>
@@ -3280,7 +3280,7 @@
         <v>332</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H116" s="5">
         <v>29</v>
@@ -3294,7 +3294,7 @@
         <v>333</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H117" s="5">
         <v>29</v>
@@ -3305,7 +3305,7 @@
         <v>314</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H118" s="5">
         <v>29</v>
@@ -3319,7 +3319,7 @@
         <v>334</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H119" s="5">
         <v>29</v>
